--- a/Source/alias.xlsx
+++ b/Source/alias.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="aliasSheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -230,6 +230,39 @@
   </si>
   <si>
     <t xml:space="preserve">Shipping Marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEL_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEL_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAX_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAX_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTN_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTN_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please note</t>
   </si>
 </sst>
 </file>
@@ -337,12 +370,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -412,22 +445,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +469,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -450,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -464,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -475,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -498,7 +531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
@@ -512,7 +545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>23</v>
       </c>
@@ -523,7 +556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>26</v>
       </c>
@@ -534,7 +567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>29</v>
       </c>
@@ -545,7 +578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>32</v>
       </c>
@@ -568,7 +601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>38</v>
       </c>
@@ -582,7 +615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>42</v>
       </c>
@@ -602,7 +635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>48</v>
       </c>
@@ -619,7 +652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>53</v>
       </c>
@@ -636,7 +669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>58</v>
       </c>
@@ -647,7 +680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>60</v>
       </c>
@@ -655,7 +688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>62</v>
       </c>
@@ -669,7 +702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>66</v>
       </c>
@@ -681,6 +714,62 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Source/alias.xlsx
+++ b/Source/alias.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">CONSIGNEEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE</t>
   </si>
   <si>
     <t xml:space="preserve">Shipper</t>
@@ -272,12 +275,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -298,6 +300,19 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -360,11 +375,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,7 +463,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,10 +485,10 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -482,294 +497,297 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -777,8 +795,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>